--- a/symbolstage.xlsx
+++ b/symbolstage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proqk\Downloads\PicturePuzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76636F96-3693-4EE4-8408-12F1C8D2E5E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04871F58-22E7-46AB-A013-5A8AC791A158}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="1788" windowWidth="4404" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -896,518 +896,531 @@
     <t>뒤</t>
   </si>
   <si>
+    <t>꺼요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편의점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형마트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미용실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 했어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안돼요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양치질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깎아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끼워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당겨요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불편해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넣어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놓아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌러요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시끄러워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칭찬해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예뻐요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기뻐요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬퍼요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸어와요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸어가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨졌어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘라주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만나요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기다려요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달려요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집어넣어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리를 들어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건을 들어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 수 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담아주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닦아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던져요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덮어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌려주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두드려요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어뜨려요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간지러워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깜깜해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달라요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨거워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛없어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목말라요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무거워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고파요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이겼어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 말 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일어서요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄러워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀랐어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼나요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르겠어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재미있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸려요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐거워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내려요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앉아요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁식사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 시에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>밖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심식사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>옆</t>
-  </si>
-  <si>
-    <t>위</t>
-  </si>
-  <si>
-    <t>내일</t>
-  </si>
-  <si>
-    <t>어제</t>
-  </si>
-  <si>
-    <t>오늘</t>
-  </si>
-  <si>
-    <t>나</t>
-  </si>
-  <si>
-    <t>너</t>
-  </si>
-  <si>
-    <t>여기</t>
-  </si>
-  <si>
-    <t>저기</t>
-  </si>
-  <si>
-    <t>꺼요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>케이크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편의점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형마트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미용실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 했어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안돼요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양치질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오빠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깎아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끼워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당겨요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불편해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닫아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넣어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놓아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눌러요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시끄러워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칭찬해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아래층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예뻐요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기뻐요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬퍼요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸어와요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸어가요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깨졌어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘라주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만나요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사랑해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기다려요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달려요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집어넣어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리를 들어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건을 들어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할 수 있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담아주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닦아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던져요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덮어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도와주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌려주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두드려요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>떨어뜨려요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간지러워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깜깜해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>높아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달라요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뜨거워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛없어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목말라요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무거워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무서워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배고파요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이겼어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할 말 있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일어서요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부끄러워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀랐어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼나요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아파요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르겠어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재미있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조용해요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸려요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐거워요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내려요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앉아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">점식식사 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁식사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몇 시에요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1805,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="A284" sqref="A284:A285"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1999,7 +2012,9 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="B24">
         <v>23</v>
       </c>
@@ -2125,7 +2140,9 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="B40">
         <v>39</v>
       </c>
@@ -2547,6 +2564,9 @@
       </c>
     </row>
     <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="B93">
         <v>92</v>
       </c>
@@ -2720,7 +2740,9 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="B115">
         <v>114</v>
       </c>
@@ -2799,7 +2821,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -2878,6 +2900,9 @@
       </c>
     </row>
     <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="B135">
         <v>134</v>
       </c>
@@ -2980,7 +3005,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -3212,7 +3237,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B177">
         <v>176</v>
@@ -3323,12 +3348,17 @@
       </c>
     </row>
     <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="B191">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="B192">
         <v>191</v>
       </c>
@@ -3358,7 +3388,9 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="B196">
         <v>195</v>
       </c>
@@ -3452,7 +3484,9 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="B208">
         <v>207</v>
       </c>
@@ -3531,7 +3565,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B218">
         <v>217</v>
@@ -3618,7 +3652,9 @@
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="B229">
         <v>228</v>
       </c>
@@ -3704,7 +3740,9 @@
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="B240">
         <v>239</v>
       </c>
@@ -3718,7 +3756,9 @@
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="B242">
         <v>241</v>
       </c>
@@ -3733,14 +3773,16 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B244">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="B245">
         <v>244</v>
       </c>
@@ -3779,7 +3821,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B250">
         <v>249</v>
@@ -3787,7 +3829,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B251">
         <v>250</v>
@@ -3811,7 +3853,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B254">
         <v>253</v>
@@ -3915,7 +3957,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B267">
         <v>266</v>
@@ -3923,14 +3965,16 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B268">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="B269">
         <v>268</v>
       </c>
@@ -3945,7 +3989,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>270</v>
@@ -3985,7 +4029,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B276">
         <v>275</v>
@@ -3993,7 +4037,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B277">
         <v>276</v>
@@ -4001,7 +4045,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B278">
         <v>277</v>
@@ -4009,7 +4053,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B279">
         <v>278</v>
@@ -4017,7 +4061,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B280">
         <v>279</v>
@@ -4025,40 +4069,48 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B281">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="B282">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B283">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="B284">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="B285">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="B286">
         <v>285</v>
       </c>
@@ -4113,7 +4165,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B293">
         <v>292</v>
@@ -4129,7 +4181,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B295">
         <v>294</v>
@@ -4137,7 +4189,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B296">
         <v>295</v>
@@ -4177,7 +4229,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B301">
         <v>300</v>
@@ -4185,7 +4237,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B302">
         <v>301</v>
@@ -4193,7 +4245,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B303">
         <v>302</v>
@@ -4201,7 +4253,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B304">
         <v>303</v>
@@ -4217,7 +4269,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>305</v>
@@ -4233,7 +4285,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B308">
         <v>307</v>
@@ -4289,7 +4341,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B315">
         <v>314</v>
@@ -4313,7 +4365,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B318">
         <v>317</v>
@@ -4321,7 +4373,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B319">
         <v>318</v>
@@ -4353,7 +4405,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B323">
         <v>322</v>
@@ -4361,7 +4413,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B324">
         <v>323</v>
@@ -4369,7 +4421,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B325">
         <v>324</v>
@@ -4377,7 +4429,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B326">
         <v>325</v>
@@ -4401,7 +4453,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B329">
         <v>328</v>
@@ -4409,7 +4461,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B330">
         <v>329</v>
@@ -4417,7 +4469,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B331">
         <v>330</v>
@@ -4441,7 +4493,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B334">
         <v>333</v>
@@ -4449,7 +4501,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B335">
         <v>334</v>
@@ -4457,7 +4509,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B336">
         <v>335</v>
@@ -4465,7 +4517,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B337">
         <v>336</v>
@@ -4489,7 +4541,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B340">
         <v>339</v>
@@ -4513,7 +4565,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B343">
         <v>342</v>
@@ -4529,7 +4581,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B345">
         <v>344</v>
@@ -4537,7 +4589,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B346">
         <v>345</v>
@@ -4545,7 +4597,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B347">
         <v>346</v>
@@ -4553,7 +4605,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B348">
         <v>347</v>
@@ -4561,21 +4613,23 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B349">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="B350">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B351">
         <v>350</v>
@@ -4583,7 +4637,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B352">
         <v>351</v>
@@ -4591,7 +4645,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B353">
         <v>352</v>
@@ -4599,7 +4653,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B354">
         <v>353</v>
@@ -4607,7 +4661,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B355">
         <v>354</v>
@@ -4615,7 +4669,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B356">
         <v>355</v>
@@ -4623,7 +4677,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B357">
         <v>356</v>
@@ -4631,7 +4685,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B358">
         <v>357</v>
@@ -4639,7 +4693,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B359">
         <v>358</v>
@@ -4647,7 +4701,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B360">
         <v>359</v>
@@ -4655,7 +4709,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B361">
         <v>360</v>
@@ -4671,7 +4725,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B363">
         <v>362</v>
@@ -4679,7 +4733,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="B364">
         <v>363</v>
@@ -4687,7 +4741,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B365">
         <v>364</v>
@@ -4695,7 +4749,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="B366">
         <v>365</v>
@@ -4703,7 +4757,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B367">
         <v>366</v>
@@ -4711,7 +4765,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B368">
         <v>367</v>
@@ -4719,20 +4773,23 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B369">
         <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="B370">
         <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B371">
         <v>370</v>
@@ -4740,7 +4797,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B372">
         <v>371</v>
@@ -4748,7 +4805,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B373">
         <v>372</v>
@@ -4756,7 +4813,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B374">
         <v>373</v>
@@ -4764,7 +4821,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B375">
         <v>374</v>
@@ -4772,7 +4829,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B376">
         <v>375</v>
@@ -4780,7 +4837,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B377">
         <v>376</v>
@@ -4788,7 +4845,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B378">
         <v>377</v>
@@ -4796,7 +4853,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B379">
         <v>378</v>
@@ -4804,7 +4861,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B380">
         <v>379</v>
@@ -4812,7 +4869,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B381">
         <v>380</v>
@@ -4820,7 +4877,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B382">
         <v>381</v>
@@ -4828,7 +4885,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B383">
         <v>382</v>
@@ -4836,7 +4893,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B384">
         <v>383</v>
@@ -4844,7 +4901,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B385">
         <v>384</v>
@@ -4852,7 +4909,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B386">
         <v>385</v>
@@ -4860,7 +4917,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B387">
         <v>386</v>
@@ -4868,7 +4925,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B388">
         <v>387</v>
@@ -4876,7 +4933,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B389">
         <v>388</v>
@@ -4884,7 +4941,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B390">
         <v>389</v>
@@ -4892,7 +4949,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B391">
         <v>390</v>
@@ -4900,7 +4957,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B392">
         <v>391</v>
@@ -4908,7 +4965,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B393">
         <v>392</v>
@@ -4940,7 +4997,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B397">
         <v>396</v>
@@ -4948,7 +5005,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B398">
         <v>397</v>
@@ -4956,7 +5013,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B399">
         <v>398</v>
@@ -4964,7 +5021,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B400">
         <v>399</v>
@@ -4972,7 +5029,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B401">
         <v>400</v>
@@ -4980,7 +5037,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B402">
         <v>401</v>
@@ -4988,7 +5045,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B403">
         <v>402</v>
@@ -4996,7 +5053,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B404">
         <v>403</v>
@@ -5004,7 +5061,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B405">
         <v>404</v>
@@ -5012,7 +5069,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B406">
         <v>405</v>
@@ -5020,7 +5077,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B407">
         <v>406</v>
@@ -5028,7 +5085,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B408">
         <v>407</v>
@@ -5036,7 +5093,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B409">
         <v>408</v>
@@ -5044,7 +5101,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B410">
         <v>409</v>
@@ -5052,7 +5109,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B411">
         <v>410</v>
@@ -5060,7 +5117,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B412">
         <v>411</v>
@@ -5076,7 +5133,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B414">
         <v>413</v>
@@ -5084,7 +5141,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B415">
         <v>414</v>
@@ -5092,7 +5149,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B416">
         <v>415</v>
@@ -5116,7 +5173,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B419">
         <v>418</v>
@@ -5124,7 +5181,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1" t="s">
-        <v>288</v>
+        <v>418</v>
       </c>
       <c r="B420">
         <v>419</v>
@@ -5132,7 +5189,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
-        <v>289</v>
+        <v>419</v>
       </c>
       <c r="B421">
         <v>420</v>
@@ -5140,215 +5197,91 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
-        <v>290</v>
+        <v>401</v>
       </c>
       <c r="B422">
         <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B423">
-        <v>422</v>
-      </c>
+      <c r="A423" s="1"/>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B424">
-        <v>423</v>
-      </c>
+      <c r="A424" s="1"/>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B425">
-        <v>424</v>
-      </c>
+      <c r="A425" s="1"/>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B426">
-        <v>425</v>
-      </c>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B427">
-        <v>426</v>
-      </c>
+      <c r="A427" s="1"/>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B428">
-        <v>427</v>
-      </c>
+      <c r="A428" s="1"/>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1"/>
-      <c r="B429">
-        <v>428</v>
-      </c>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B430">
-        <v>429</v>
-      </c>
+      <c r="A430" s="1"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B431">
-        <v>430</v>
-      </c>
+      <c r="A431" s="1"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B432">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2">
-      <c r="A433" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B433">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1">
       <c r="A434" s="1"/>
-      <c r="B434">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
-      <c r="A435" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B435">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B436">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2">
-      <c r="A437" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B437">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2">
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1">
       <c r="A438" s="1"/>
-      <c r="B438">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2">
-      <c r="A439" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B439">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" t="s">
-        <v>415</v>
-      </c>
-      <c r="B440">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
-      <c r="A441" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B441">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1">
       <c r="A442" s="1"/>
-      <c r="B442">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
+    </row>
+    <row r="443" spans="1:1">
       <c r="A443" s="1"/>
-      <c r="B443">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B444">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
-      <c r="A445" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B445">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B446">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2">
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:1">
       <c r="A447" s="1"/>
-      <c r="B447">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2">
+    </row>
+    <row r="448" spans="1:1">
       <c r="A448" s="1"/>
-      <c r="B448">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
-      <c r="A449" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B449">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1"/>
+    </row>
+    <row r="455" spans="1:1">
       <c r="A455" s="3"/>
     </row>
   </sheetData>
